--- a/County_statistics.xlsx
+++ b/County_statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alwinabraham/Desktop/NIKHITAS STUFF/Bootcamp/Modules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alwinabraham/Desktop/NIKHITAS STUFF/Bootcamp/Modules/Final Project/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F335F232-8BD2-C046-A87C-F7287949929E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A29E81-B802-BE4F-B60A-7A700538C5D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="3860" windowWidth="27640" windowHeight="16060" xr2:uid="{3B375BA5-43FF-324F-AD46-4931B32B1046}"/>
+    <workbookView xWindow="1160" yWindow="960" windowWidth="27640" windowHeight="16060" xr2:uid="{3B375BA5-43FF-324F-AD46-4931B32B1046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="3145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="3147">
   <si>
     <t xml:space="preserve">FIPS </t>
   </si>
@@ -9471,6 +9471,12 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>Population density</t>
+  </si>
+  <si>
+    <t>Housesold size</t>
   </si>
 </sst>
 </file>
@@ -9583,7 +9589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -9609,6 +9615,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9924,10 +9933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F824508-426E-3F4B-9542-29D2EE5E6011}">
-  <dimension ref="A1:I3138"/>
+  <dimension ref="A1:K3138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9936,7 +9945,7 @@
     <col min="4" max="4" width="13.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9964,8 +9973,14 @@
       <c r="I1" s="3" t="s">
         <v>3144</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J1" s="10" t="s">
+        <v>3145</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
@@ -9979,7 +9994,7 @@
         <v>59338</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1003</v>
       </c>
@@ -9993,7 +10008,7 @@
         <v>57588</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1005</v>
       </c>
@@ -10007,7 +10022,7 @@
         <v>34382</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1007</v>
       </c>
@@ -10021,7 +10036,7 @@
         <v>46064</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1009</v>
       </c>
@@ -10035,7 +10050,7 @@
         <v>50412</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1011</v>
       </c>
@@ -10049,7 +10064,7 @@
         <v>29267</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1013</v>
       </c>
@@ -10063,7 +10078,7 @@
         <v>37365</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1015</v>
       </c>
@@ -10077,7 +10092,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1017</v>
       </c>
@@ -10091,7 +10106,7 @@
         <v>39917</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1019</v>
       </c>
@@ -10105,7 +10120,7 @@
         <v>42132</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1021</v>
       </c>
@@ -10119,7 +10134,7 @@
         <v>47547</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1023</v>
       </c>
@@ -10133,7 +10148,7 @@
         <v>39907</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1025</v>
       </c>
@@ -10147,7 +10162,7 @@
         <v>40741</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1027</v>
       </c>
@@ -10161,7 +10176,7 @@
         <v>39201</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1029</v>
       </c>
